--- a/SpringMVC_Mybatis_Shiro-master/src/main/webapp/file/gainsInfo.xlsx
+++ b/SpringMVC_Mybatis_Shiro-master/src/main/webapp/file/gainsInfo.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
@@ -26,6 +29,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>时间格式为:
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>操作时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +71,10 @@
   </si>
   <si>
     <t>总资产</t>
+  </si>
+  <si>
+    <t>资金余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -92,6 +100,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -424,9 +433,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -438,9 +449,10 @@
     <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,6 +476,9 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/SpringMVC_Mybatis_Shiro-master/src/main/webapp/file/gainsInfo.xlsx
+++ b/SpringMVC_Mybatis_Shiro-master/src/main/webapp/file/gainsInfo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -44,16 +44,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>操作时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>股票代码</t>
   </si>
   <si>
@@ -70,10 +66,19 @@
     <t>成交价格</t>
   </si>
   <si>
+    <t>资金余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>总资产</t>
-  </si>
-  <si>
-    <t>资金余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金帐号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -447,37 +452,40 @@
     <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="1" customWidth="1"/>
+    <col min="7" max="8" width="15.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -485,7 +493,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
-      <formula1>"买入,卖出"</formula1>
+      <formula1>"证券买入,证券卖出,基金申购,基金赎回"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SpringMVC_Mybatis_Shiro-master/src/main/webapp/file/gainsInfo.xlsx
+++ b/SpringMVC_Mybatis_Shiro-master/src/main/webapp/file/gainsInfo.xlsx
@@ -78,7 +78,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>资金帐号</t>
+    <t>资金账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +441,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
